--- a/table schema and cloud functions.xlsx
+++ b/table schema and cloud functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edb7023afccf6953/UM Dearborn/3rd Semester/Cloud Computing ECE 528/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edb7023afccf6953/UM Dearborn/3rd Semester/Cloud Computing ECE 528/Football-League-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{E2AF0731-A466-4A70-9250-0114A49BBDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BCADE06-C124-4C23-B234-FFF7D11E5995}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{E2AF0731-A466-4A70-9250-0114A49BBDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8357096A-772F-0549-BA3C-CA913825C3C8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{27D72A78-20D7-4E27-B750-DCB3B775514E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="2" xr2:uid="{27D72A78-20D7-4E27-B750-DCB3B775514E}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -435,18 +435,9 @@
     <t>Bigquery (Analytics Data):  Filtered data -no duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">BigQuery </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Storage: Preprocessed </t>
-  </si>
-  <si>
     <t>Raw Data Bucket</t>
   </si>
   <si>
-    <t>Cloud Functions Mapping</t>
-  </si>
-  <si>
     <t>Analytics Data (SQL Query schedule run)</t>
   </si>
   <si>
@@ -454,6 +445,15 @@
   </si>
   <si>
     <t>Raw Data (.json)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Storage/ S3 : Preprocessed </t>
+  </si>
+  <si>
+    <t>BigQuery / Redshift</t>
+  </si>
+  <si>
+    <t>Cloud /Lambda Functions Mapping</t>
   </si>
 </sst>
 </file>
@@ -629,11 +629,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -647,16 +644,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,21 +656,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,119 +675,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,1340 +1136,1337 @@
       <selection activeCell="K1" sqref="K1:R101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="22.36328125" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="O4" s="12" t="s">
+      <c r="E4" s="7"/>
+      <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C5" s="10" t="s">
+      <c r="P4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="O5" s="12" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="O5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C6" s="10" t="s">
+      <c r="P5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="9"/>
+      <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C7" s="10" t="s">
+      <c r="P6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="G7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="O7" s="13" t="s">
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="O7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C8" s="10" t="s">
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="O8" s="13" t="s">
+      <c r="I8" s="6"/>
+      <c r="O8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C9" s="15" t="s">
+      <c r="P8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="O9" s="12" t="s">
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="O9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="G10" s="10" t="s">
+      <c r="P9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="O10" s="12" t="s">
+      <c r="I10" s="6"/>
+      <c r="O10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C11" s="16" t="s">
+      <c r="P10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="G11" s="10" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="12" t="s">
+      <c r="H11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C12" s="4" t="s">
+      <c r="P11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="12" t="s">
+      <c r="I12" s="6"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C13" s="22" t="s">
+      <c r="P12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="O13" s="12" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="O13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C14" s="23" t="s">
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="3:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14"/>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C15" s="22" t="s">
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="G15" s="16" t="s">
+      <c r="E15" s="8"/>
+      <c r="G15" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C16" s="22" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="8"/>
+      <c r="G16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="G17" s="10" t="s">
+    <row r="17" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-    </row>
-    <row r="18" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C18" s="16" t="s">
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+    </row>
+    <row r="18" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="G18" s="10" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="O18" s="28" t="s">
+      <c r="I18" s="9"/>
+      <c r="O18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="28" t="s">
+      <c r="P18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-    </row>
-    <row r="19" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C19" s="4" t="s">
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
+    </row>
+    <row r="19" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="O19" s="12" t="s">
+      <c r="I19" s="9"/>
+      <c r="O19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="12"/>
-      <c r="X19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-    </row>
-    <row r="20" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C20" s="12" t="s">
+      <c r="P19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="X19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+    </row>
+    <row r="20" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="O20" s="12" t="s">
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="O20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="X20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-    </row>
-    <row r="21" spans="3:54" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="12" t="s">
+      <c r="P20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="X20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+    </row>
+    <row r="21" spans="3:54" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="G21" s="36" t="s">
+      <c r="E21" s="8"/>
+      <c r="G21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="O21" s="13" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="O21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="12"/>
-      <c r="X21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-    </row>
-    <row r="22" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C22" s="12" t="s">
+      <c r="P21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="X21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+    </row>
+    <row r="22" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="O22" s="13" t="s">
+      <c r="E22" s="9"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="O22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C23" s="12" t="s">
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="O23" s="13" t="s">
+      <c r="E23" s="9"/>
+      <c r="O23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C24" s="12" t="s">
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="O24" s="13" t="s">
+      <c r="E24" s="8"/>
+      <c r="O24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C25" s="12" t="s">
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="O25" s="13" t="s">
+      <c r="E25" s="8"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="O25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="31"/>
-    </row>
-    <row r="26" spans="3:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="20"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="O26" s="13" t="s">
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="3:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="11"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="O26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="3:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="20"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="20"/>
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="3:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="11"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="11"/>
       <c r="G27"/>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
-      <c r="O27" s="33" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="48"/>
+      <c r="O27" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-    </row>
-    <row r="28" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="E28" s="20"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="E28" s="11"/>
       <c r="G28"/>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-    </row>
-    <row r="29" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="E29" s="20"/>
-      <c r="K29" s="13" t="s">
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="E29" s="11"/>
+      <c r="K29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="13" t="s">
+      <c r="L29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="K30" s="13" t="s">
+    <row r="30" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="K30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="O30" s="34" t="s">
+      <c r="M30" s="9"/>
+      <c r="O30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-    </row>
-    <row r="31" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="K31" s="13" t="s">
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+    </row>
+    <row r="31" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="K31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="O31" s="4" t="s">
+      <c r="L31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="O31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:54" x14ac:dyDescent="0.35">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="K32" s="13" t="s">
+    <row r="32" spans="3:54" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5"/>
+      <c r="K32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="O32" s="12" t="s">
+      <c r="L32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="O32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C33" s="2"/>
-      <c r="K33" s="12" t="s">
+      <c r="P32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="K33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="O33" s="13" t="s">
+      <c r="M33" s="8"/>
+      <c r="O33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C34" s="2"/>
-      <c r="K34" s="13" t="s">
+      <c r="P33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="K34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="O34" s="12" t="s">
+      <c r="L34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="O34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="K35" s="13" t="s">
+      <c r="P34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="K35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="O35" s="13" t="s">
+      <c r="M35" s="9"/>
+      <c r="O35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O36" s="13" t="s">
+      <c r="P35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="P36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C37" s="2"/>
-      <c r="O37" s="13" t="s">
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="O37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C38" s="2"/>
-      <c r="O38" s="13" t="s">
+      <c r="P37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+      <c r="O38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C39" s="2"/>
-      <c r="O39" s="13" t="s">
+      <c r="P38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="O39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C40" s="2"/>
-      <c r="O40" s="13" t="s">
+      <c r="P39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="O40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D41" s="2"/>
-      <c r="O41" s="13" t="s">
+      <c r="P40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="O41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D42" s="2"/>
-      <c r="O42" s="13" t="s">
+      <c r="P41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+      <c r="O42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P42" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O43" s="13" t="s">
+      <c r="P42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P43" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O44" s="13" t="s">
+      <c r="P43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O45" s="13" t="s">
+      <c r="P44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O45" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P45" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O46" s="13" t="s">
+      <c r="P45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P46" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O47" s="13" t="s">
+      <c r="P46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P47" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="O48" s="13" t="s">
+      <c r="P47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O48" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P48" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O49" s="13" t="s">
+      <c r="P48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P49" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O50" s="13" t="s">
+      <c r="P49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P50" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O51" s="13" t="s">
+      <c r="P50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P51" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O52" s="13" t="s">
+      <c r="P51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O53" s="13" t="s">
+      <c r="P52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O54" s="13" t="s">
+      <c r="P53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O54" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O55" s="13" t="s">
+      <c r="P54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O55" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="P55" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O56" s="13" t="s">
+      <c r="P55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O56" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P56" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O57" s="13" t="s">
+      <c r="P56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O57" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="P57" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O58" s="13" t="s">
+      <c r="P57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="P58" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O59" s="13" t="s">
+      <c r="P58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="P59" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O60" s="13" t="s">
+      <c r="P59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="P60" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O61" s="13" t="s">
+      <c r="P60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O61" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P61" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O62" s="13" t="s">
+      <c r="P61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O62" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P62" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O63" s="35" t="s">
+      <c r="P62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O63" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-    </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O65" s="8" t="s">
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+    </row>
+    <row r="65" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O65" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-    </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O66" s="28" t="s">
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+    </row>
+    <row r="66" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O66" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="P66" s="28" t="s">
+      <c r="P66" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="29" t="s">
+      <c r="Q66" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O67" s="12" t="s">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O67" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q67" s="12"/>
-    </row>
-    <row r="68" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O68" s="12" t="s">
+      <c r="P67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="8"/>
+    </row>
+    <row r="68" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O68" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P68" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q68" s="12"/>
-    </row>
-    <row r="69" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O69" s="13" t="s">
+      <c r="P68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P69" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="70" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O70" s="13" t="s">
+      <c r="P69" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q69" s="8"/>
+    </row>
+    <row r="70" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O70" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P70" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O71" s="13" t="s">
+      <c r="P70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O71" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P71" s="13" t="s">
+      <c r="P71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" spans="15:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O72" s="33" t="s">
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="15:17" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-    </row>
-    <row r="73" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="Q73" s="37"/>
-    </row>
-    <row r="74" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O74" s="8" t="s">
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+    </row>
+    <row r="73" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O74" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-    </row>
-    <row r="75" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O75" s="28" t="s">
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+    </row>
+    <row r="75" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O75" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="P75" s="28" t="s">
+      <c r="P75" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q75" s="29" t="s">
+      <c r="Q75" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O76" s="12" t="s">
+    <row r="76" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O76" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q76" s="12"/>
-    </row>
-    <row r="77" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O77" s="12" t="s">
+      <c r="P76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O77" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P77" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q77" s="12"/>
-    </row>
-    <row r="78" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O78" s="13" t="s">
+      <c r="P77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P78" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q78" s="12"/>
-    </row>
-    <row r="79" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O79" s="13" t="s">
+      <c r="P78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O79" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="P79" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O80" s="13" t="s">
+      <c r="P79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O80" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P80" s="13" t="s">
+      <c r="P80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O81" s="13" t="s">
+      <c r="Q80" s="9"/>
+    </row>
+    <row r="81" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O81" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="P81" s="13" t="s">
+      <c r="P81" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O82" s="33" t="s">
+      <c r="Q81" s="9"/>
+    </row>
+    <row r="82" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O82" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-    </row>
-    <row r="83" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-    </row>
-    <row r="85" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O85" s="8" t="s">
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+    </row>
+    <row r="83" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+    </row>
+    <row r="85" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O85" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-    </row>
-    <row r="86" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O86" s="4" t="s">
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+    </row>
+    <row r="86" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="P86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q86" s="5" t="s">
+      <c r="Q86" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O87" s="12" t="s">
+    <row r="87" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O87" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P87" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q87" s="12"/>
-    </row>
-    <row r="88" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O88" s="12" t="s">
+      <c r="P87" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q87" s="8"/>
+    </row>
+    <row r="88" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O88" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P88" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q88" s="12"/>
-    </row>
-    <row r="89" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O89" s="13" t="s">
+      <c r="P88" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q88" s="8"/>
+    </row>
+    <row r="89" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O89" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P89" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q89" s="12"/>
-    </row>
-    <row r="90" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O90" s="13" t="s">
+      <c r="P89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q89" s="8"/>
+    </row>
+    <row r="90" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O90" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P90" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O91" s="13" t="s">
+      <c r="P90" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q90" s="9"/>
+    </row>
+    <row r="91" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O91" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="P91" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O92" s="13" t="s">
+      <c r="P91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q91" s="9"/>
+    </row>
+    <row r="92" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O92" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P92" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O93" s="24" t="s">
+      <c r="P92" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q92" s="9"/>
+    </row>
+    <row r="93" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O93" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P93" s="24" t="s">
+      <c r="P93" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q93" s="31"/>
-    </row>
-    <row r="94" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O94" s="13" t="s">
+      <c r="Q93" s="20"/>
+    </row>
+    <row r="94" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O94" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O95" s="13" t="s">
+      <c r="P94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q94" s="9"/>
+    </row>
+    <row r="95" spans="15:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O95" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P95" s="24" t="s">
+      <c r="P95" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O96" s="13" t="s">
+      <c r="Q95" s="9"/>
+    </row>
+    <row r="96" spans="15:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O96" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P96" s="24" t="s">
+      <c r="P96" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O97" s="13" t="s">
+      <c r="Q96" s="9"/>
+    </row>
+    <row r="97" spans="15:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O97" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P97" s="24" t="s">
+      <c r="P97" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O98" s="33" t="s">
+      <c r="Q97" s="9"/>
+    </row>
+    <row r="98" spans="15:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O98" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="P98" s="33"/>
-      <c r="Q98" s="33"/>
-    </row>
-    <row r="99" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="33"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+    </row>
+    <row r="99" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="O82:Q83"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O98:Q99"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="O27:Q28"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="AL18:AN18"/>
-    <mergeCell ref="AO18:AP18"/>
-    <mergeCell ref="AQ18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="S17:BB17"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="O17:Q17"/>
     <mergeCell ref="AV18:AW18"/>
     <mergeCell ref="AX18:BB18"/>
     <mergeCell ref="C18:E18"/>
@@ -2479,18 +2475,21 @@
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AH18"/>
     <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="S17:BB17"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="AL18:AN18"/>
+    <mergeCell ref="AO18:AP18"/>
+    <mergeCell ref="AQ18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="O27:Q28"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="O82:Q83"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O98:Q99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
@@ -2505,328 +2504,328 @@
       <selection activeCell="H11" sqref="D3:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
-    <col min="12" max="12" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="38" t="s">
+    <row r="3" spans="4:12" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="39">
+    <row r="4" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="39">
+    <row r="5" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="39">
+    <row r="6" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="57"/>
+      <c r="H6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="39">
+    <row r="7" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="24">
         <v>4</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="39">
+    <row r="8" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="24">
         <v>5</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
-        <v>6</v>
-      </c>
-      <c r="E9" s="42" t="s">
+    <row r="9" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="24">
+        <v>6</v>
+      </c>
+      <c r="E9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+    <row r="10" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="44" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="44" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="39">
+    <row r="11" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="24">
         <v>8</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="44" t="s">
+      <c r="I11" s="56"/>
+      <c r="J11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="44" t="s">
+      <c r="K11" s="56"/>
+      <c r="L11" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="39">
+    <row r="12" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="24">
         <v>9</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="45" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="45" t="s">
+      <c r="I12" s="56"/>
+      <c r="J12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="45" t="s">
+      <c r="K12" s="56"/>
+      <c r="L12" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="39">
+    <row r="13" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="24">
         <v>10</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="45" t="s">
+      <c r="I13" s="56"/>
+      <c r="J13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="45" t="s">
+      <c r="K13" s="56"/>
+      <c r="L13" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="39">
+    <row r="14" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="24">
         <v>11</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="40" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="56"/>
+      <c r="J14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="40" t="s">
+      <c r="K14" s="56"/>
+      <c r="L14" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="39">
+    <row r="15" spans="4:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="24">
         <v>12</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="40" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="40" t="s">
+      <c r="I15" s="56"/>
+      <c r="J15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="40" t="s">
+      <c r="K15" s="56"/>
+      <c r="L15" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2849,284 +2848,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7B60ED-921B-44A8-8DB2-F391AE740E77}">
   <dimension ref="D5:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="147" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="54"/>
-      <c r="E5" s="57" t="s">
+    <row r="5" spans="4:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="4:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="D6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="58" t="s">
+      <c r="J6" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="4:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="D6" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="55">
+    </row>
+    <row r="7" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="55">
+    <row r="8" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="55">
+    <row r="9" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="31">
         <v>3</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="63" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="57"/>
+      <c r="H9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="55">
+    <row r="10" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="31">
         <v>4</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="55">
+    <row r="11" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="31">
         <v>5</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="55">
-        <v>6</v>
-      </c>
-      <c r="E12" s="41" t="s">
+    <row r="12" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="31">
+        <v>6</v>
+      </c>
+      <c r="E12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="55">
+    <row r="13" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="31">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="45" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="55">
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+    </row>
+    <row r="14" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="31">
         <v>8</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="45" t="s">
+      <c r="E14" s="57"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="55">
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="31">
         <v>9</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="45" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="55">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="31">
         <v>10</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="45" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="55">
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="31">
         <v>11</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="40" t="s">
+      <c r="E17" s="57"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="4:10" s="20" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="55">
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+    </row>
+    <row r="18" spans="4:10" s="11" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="31">
         <v>12</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="40" t="s">
+      <c r="E18" s="57"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J12:J18"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="G12:G18"/>
     <mergeCell ref="I12:I18"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
